--- a/output/UNIMAR IKITELLI(1).xlsx
+++ b/output/UNIMAR IKITELLI(1).xlsx
@@ -829,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>51.48</v>
+        <v>-51.48</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -852,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>50.94</v>
+        <v>-50.94</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -875,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>51.06</v>
+        <v>-51.06</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -898,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="E22">
-        <v>51.54</v>
+        <v>-51.54</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="E23">
-        <v>51.13</v>
+        <v>-51.13</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -944,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="E24">
-        <v>51.74</v>
+        <v>-51.74</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -967,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="E25">
-        <v>51.73</v>
+        <v>-51.73</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -990,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>128.19</v>
+        <v>-128.19</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -1036,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>124</v>
+        <v>-124</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -1059,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>389.07</v>
+        <v>-389.07</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -1082,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>388.61</v>
+        <v>-388.61</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -1105,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="E31">
-        <v>388.15</v>
+        <v>-388.15</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -1128,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>387.7</v>
+        <v>-387.7</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -1151,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="E33">
-        <v>387.21</v>
+        <v>-387.21</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -1174,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>386.86</v>
+        <v>-386.86</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -1197,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>386.4</v>
+        <v>-386.4</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -1220,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="E36">
-        <v>385.95</v>
+        <v>-385.95</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -1243,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="E37">
-        <v>385.5</v>
+        <v>-385.5</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -1289,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="E39">
-        <v>50.03</v>
+        <v>-50.03</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1312,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>50.65</v>
+        <v>-50.65</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1335,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>198.55</v>
+        <v>-198.55</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -1358,7 +1358,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>794.29</v>
+        <v>-794.29</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>

--- a/output/UNIMAR IKITELLI(1).xlsx
+++ b/output/UNIMAR IKITELLI(1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="8">
   <si>
     <t>GELIBOLU 380 UNIMAR KUZEY</t>
   </si>
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>580.91</v>
+        <v>582.29</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -455,7 +455,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>486.75</v>
+        <v>487.9</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>392.6</v>
+        <v>393.51</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>298.44</v>
+        <v>299.13</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>204.28</v>
+        <v>204.75</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>110.12</v>
+        <v>110.37</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>836.9400000000001</v>
+        <v>769.12</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -731,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>390.29</v>
+        <v>358.6</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>60.65</v>
+        <v>59.82</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -777,13 +777,13 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>60.72</v>
+        <v>59.88</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>573.72</v>
+        <v>620.3</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -800,13 +800,13 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>60.79</v>
+        <v>59.95</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>40.53</v>
+        <v>43.83</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -823,13 +823,13 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>60.86</v>
+        <v>60.02</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19">
-        <v>-51.48</v>
+        <v>-50.77</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -846,13 +846,13 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>60.92</v>
+        <v>60.08</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20">
-        <v>-50.94</v>
+        <v>-50.24</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -869,13 +869,13 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>60.99</v>
+        <v>60.15</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21">
-        <v>-51.06</v>
+        <v>-50.36</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -892,13 +892,13 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>61.06</v>
+        <v>60.22</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22">
-        <v>-51.54</v>
+        <v>-50.79</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -915,13 +915,13 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>61.13</v>
+        <v>60.28</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23">
-        <v>-51.13</v>
+        <v>-50.43</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -938,13 +938,13 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>148.25</v>
+        <v>141.87</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24">
-        <v>-51.74</v>
+        <v>-50.87</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -961,13 +961,13 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>297.52</v>
+        <v>284.71</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>-51.73</v>
+        <v>-50.85</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1007,13 +1007,13 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>469.24</v>
+        <v>715.54</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27">
-        <v>-128.19</v>
+        <v>-51.91</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -1030,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>204.78</v>
+        <v>109.01</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>-124</v>
+        <v>-49.57</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -1053,13 +1053,13 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>436.96</v>
+        <v>55.48</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29">
-        <v>-389.07</v>
+        <v>-49.44</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -1076,13 +1076,13 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>438.07</v>
+        <v>55.7</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30">
-        <v>-388.61</v>
+        <v>-49.46</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -1099,13 +1099,13 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>439.18</v>
+        <v>55.93</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>-388.15</v>
+        <v>-49.48</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -1122,13 +1122,13 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>440.29</v>
+        <v>56.16</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32">
-        <v>-387.7</v>
+        <v>-49.49</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -1145,13 +1145,13 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>441.4</v>
+        <v>56.38</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33">
-        <v>-387.21</v>
+        <v>-49.51</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -1167,14 +1167,14 @@
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34">
-        <v>714.14</v>
+      <c r="C34" t="s">
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34">
-        <v>-386.86</v>
+        <v>-49.52</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -1197,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>-386.4</v>
+        <v>-49.53</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -1220,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="E36">
-        <v>-385.95</v>
+        <v>-49.55</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -1243,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="E37">
-        <v>-385.5</v>
+        <v>-49.57</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -1265,8 +1265,8 @@
       <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="E38" t="s">
-        <v>7</v>
+      <c r="E38">
+        <v>-49.23</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1289,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="E39">
-        <v>-50.03</v>
+        <v>-49.84</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1312,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>-50.65</v>
+        <v>-50.45</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1335,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>-198.55</v>
+        <v>-201.72</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -1357,8 +1357,8 @@
       <c r="D42" t="s">
         <v>7</v>
       </c>
-      <c r="E42">
-        <v>-794.29</v>
+      <c r="E42" t="s">
+        <v>7</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
